--- a/menu_files/staff_weekly_orderSheet_Naas_Community_College.xlsx
+++ b/menu_files/staff_weekly_orderSheet_Naas_Community_College.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,146 +533,38 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>1622</v>
+        <v>2218</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Ben McCormack</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup</t>
+          <t>Sausages with a Creamy Mash</t>
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>1623</v>
+        <v>2246</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Adam Szczepkowski</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Butter Chicken Curry</t>
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>1624</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>1625</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Pasta Bolognese</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>1626</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>1634</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>1634</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>1634</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,7 +909,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>1627</v>
+        <v>2247</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -1026,21 +918,21 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Adam Szczepkowski</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Pasta Bolognese</t>
+          <t>Garlic parmesan chicken pasta</t>
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>1628</v>
+        <v>2219</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -1049,154 +941,16 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Ben McCormack</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
+          <t>Garlic parmesan chicken pasta</t>
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>1629</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>1630</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>Pasta Bolognese</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,56 +1013,38 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>1631</v>
+        <v>2220</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Ben McCormack</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Butter Chicken Curry</t>
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>1632</v>
+        <v>2248</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Adam Szczepkowski</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Chicken Pesto Pasta</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>1633</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Roast Beef with creamed potatoes, vegetables and gravy</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1344,6 +1080,82 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Class 2nd Order Sheet for Wednesday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2244</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Daniel Baldwin</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="000000FF"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 3rd Order Sheet for Wednesday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="000000FF"/>
@@ -1412,7 +1224,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 3rd Order Sheet for Wednesday of Naas Community College-14</t>
+          <t>Class 4th Order Sheet for Wednesday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="000000FF"/>
@@ -1481,7 +1293,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 4th Order Sheet for Wednesday of Naas Community College-14</t>
+          <t>Class 5th Order Sheet for Wednesday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -1526,10 +1338,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1550,7 +1362,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 5th Order Sheet for Wednesday of Naas Community College-14</t>
+          <t>Class 2nd Order Sheet for Monday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -1595,10 +1407,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF0000"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="000000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1619,7 +1431,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 2nd Order Sheet for Monday of Naas Community College-14</t>
+          <t>Class 6th Order Sheet for Wednesday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -1664,10 +1476,237 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0092D050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Canteen Staff Sheet for Wednesday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class Year</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2248</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Adam Szczepkowski</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2220</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Ben McCormack</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Butter Chicken Curry</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>2244</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Daniel Baldwin</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFFF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 1st Order Sheet for Thursday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2221</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Ben McCormack</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Italian Meatballs with Penne Pasta</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2249</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Adam Szczepkowski</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1688,7 +1727,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 6th Order Sheet for Wednesday of Naas Community College-14</t>
+          <t>Class 2nd Order Sheet for Thursday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -1733,140 +1772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0092D050"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Canteen Staff Sheet for Wednesday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Teacher/Class Year</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1631</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>1632</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Pesto Pasta</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>1633</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Roast Beef with creamed potatoes, vegetables and gravy</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFFF00"/>
@@ -1890,83 +1796,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 1st Order Sheet for Thursday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1636</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class 2nd Order Sheet for Thursday of Naas Community College-14</t>
+          <t>Class 3rd Order Sheet for Thursday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -2011,7 +1841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFFF00"/>
@@ -2035,7 +1865,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 3rd Order Sheet for Thursday of Naas Community College-14</t>
+          <t>Class 4th Order Sheet for Thursday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -2080,7 +1910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFFF00"/>
@@ -2104,7 +1934,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 4th Order Sheet for Thursday of Naas Community College-14</t>
+          <t>Class 5th Order Sheet for Thursday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -2149,7 +1979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFFF00"/>
@@ -2173,7 +2003,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 5th Order Sheet for Thursday of Naas Community College-14</t>
+          <t>Class 6th Order Sheet for Thursday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -2218,75 +2048,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class 6th Order Sheet for Thursday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2294,7 +2055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2345,7 +2106,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>1636</v>
+        <v>2249</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -2354,16 +2115,39 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Adam Szczepkowski</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Breaded Chicken Baguette</t>
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2221</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Ben McCormack</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Italian Meatballs with Penne Pasta</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +2931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3198,7 +2982,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>1622</v>
+        <v>2246</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -3207,21 +2991,21 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Adam Szczepkowski</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup</t>
+          <t>Butter Chicken Curry</t>
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>1623</v>
+        <v>2218</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -3230,154 +3014,16 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Ben McCormack</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Sausages with a Creamy Mash</t>
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>1624</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>1625</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Pasta Bolognese</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>1626</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>1634</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>1634</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>1634</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3395,7 +3041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3440,146 +3086,38 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>1627</v>
+        <v>2219</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Ben McCormack</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Pasta Bolognese</t>
+          <t>Garlic parmesan chicken pasta</t>
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>1628</v>
+        <v>2247</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Watashi Amedo</t>
+          <t>Adam Szczepkowski</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
+          <t>Garlic parmesan chicken pasta</t>
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>1629</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>1630</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Watashi Amedo</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Pasta Bolognese</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/menu_files/staff_weekly_orderSheet_Naas_Community_College.xlsx
+++ b/menu_files/staff_weekly_orderSheet_Naas_Community_College.xlsx
@@ -1537,7 +1537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1548,7 +1548,6 @@
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1566,17 +1565,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Student Name</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
+          <t>Total Quantity</t>
         </is>
       </c>
     </row>
@@ -1588,16 +1582,11 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
+      <c r="C3" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1608,16 +1597,11 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
           <t>Chicken Chop Suey with Egg Fried Rice</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
+      <c r="C4" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1628,16 +1612,11 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
+      <c r="C5" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1648,15 +1627,10 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
           <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,15 +1642,10 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Anna Vaughan</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
           <t>Oven baked potato cubes</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1688,16 +1657,11 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
+      <c r="C8" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1708,16 +1672,11 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
+      <c r="C9" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1728,15 +1687,10 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
           <t>Essence Strawberry and Raspberry</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="C10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,759 +1702,373 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Jade Delahunt</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
+          <t>Total for 1st</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Wiktor Szadzinski</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Riley Mulvaney</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Emmie Murphy</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>John Marco Diamat</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked crispy potato wedges</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Rebecca Rattigan</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Jamie Higgins</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
+          <t>Total for 3rd</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Total for 1st</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="5" t="n">
-        <v>16</v>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Jake Coughlan</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Nathan Kozik</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Felipe Barreto</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Ona Houlihan-Canestro</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Oliwier Wasik</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Harry Keegan</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
+          <t>Total for 2nd</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Total for 3rd</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="5" t="n">
-        <v>6</v>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
+          <t>Total for 4th</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
+          <t>Total for 6th</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>Total for 2nd</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="n"/>
-      <c r="C38" s="4" t="n"/>
-      <c r="D38" s="5" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Odhran Davy</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Patryk Zawikowski</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Georgia Condron</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>Total for 4th</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="n"/>
-      <c r="C45" s="4" t="n"/>
-      <c r="D45" s="5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Jesse Redican</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>Total for 6th</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="n"/>
-      <c r="C48" s="4" t="n"/>
-      <c r="D48" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Aaron Wilson</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
           <t>Total for 5th</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n"/>
-      <c r="C50" s="4" t="n"/>
-      <c r="D50" s="5" t="n">
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2528,7 +2096,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Tuesday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Tuesday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
@@ -4282,7 +3850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4293,7 +3861,6 @@
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4311,17 +3878,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Student Name</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
+          <t>Total Quantity</t>
         </is>
       </c>
     </row>
@@ -4333,16 +3895,11 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
+      <c r="C3" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4353,16 +3910,11 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
           <t>Barbecue Pulled Pork Bap with crispy onions.</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
+      <c r="C4" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4373,16 +3925,11 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
+      <c r="C5" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4393,16 +3940,11 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
+      <c r="C6" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4413,15 +3955,10 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4433,15 +3970,10 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4453,16 +3985,11 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Wiktor Szadzinski</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -4473,15 +4000,10 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Emmie Murphy</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,1059 +4015,373 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>John Marco Diamat</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked crispy potato wedges</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
+          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Rebecca Rattigan</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
+          <t>Total for 1st</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Jamie Higgins</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Jaden Gilbride</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Daniel Burkett</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Arian Pluta Misini</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
+          <t>Total for 3rd</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Riley Mulvaney</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Luke McCann</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Luke McCann</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Harry Kelly</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Total for 1st</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="5" t="n">
-        <v>20</v>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Jake Coughlan</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Nathan Kozik</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Felipe Barreto</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="n">
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Ona Houlihan-Canestro</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Oliwier Wasik</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Harry Keegan</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
+          <t>Total for 2nd</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="5" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Callum casey</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Total for 3rd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="5" t="n">
-        <v>7</v>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
+          <t>Total for 6th</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
+          <t>Total for 5th</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
           <t>Barbecue Pulled Pork Bap with crispy onions.</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="C35" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Shonagh Purcell Tobin</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Blanka Szulc</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Ryan Crouch</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked potato cubes</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Fiona Mullen</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Emma Warren</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Oisin Conlan</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Ryan O Connor</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Amy Anson</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>Total for 2nd</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="n"/>
-      <c r="C58" s="4" t="n"/>
-      <c r="D58" s="5" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>Jesse Redican</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D60" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>Total for 6th</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="n"/>
-      <c r="C61" s="4" t="n"/>
-      <c r="D61" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>Aaron Wilson</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>Total for 5th</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="n"/>
-      <c r="C63" s="4" t="n"/>
-      <c r="D63" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>Ben Cahalan</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
           <t>Total for Unknown</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n"/>
-      <c r="C65" s="4" t="n"/>
-      <c r="D65" s="5" t="n">
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5573,7 +4409,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Wednesday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Wednesday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
@@ -7402,7 +6238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7413,7 +6249,6 @@
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7431,17 +6266,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Student Name</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
+          <t>Total Quantity</t>
         </is>
       </c>
     </row>
@@ -7453,16 +6283,11 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
+      <c r="C3" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7473,16 +6298,11 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
+      <c r="C4" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7493,16 +6313,11 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
+      <c r="C5" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7513,15 +6328,10 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
           <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,15 +6343,10 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Anna Vaughan</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
           <t>Oven baked crispy potato wedges</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,16 +6358,11 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
+      <c r="C8" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -7573,15 +6373,10 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7593,15 +6388,10 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Jade Delahunt</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7613,16 +6403,11 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Wiktor Szadzinski</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -7633,16 +6418,11 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Emmie Murphy</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -7653,15 +6433,10 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>John Marco Diamat</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7673,1119 +6448,418 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Rebecca Rattigan</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Jaden Gilbride</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
+          <t>Total for 1st</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Arian Pluta Misini</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
           <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="C17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Harry Kelly</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Riley Mulvaney</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Rilé Murphy</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Cian O Brien</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
+          <t>Total for 3rd</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Cian O Brien</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Sean Ryan</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Sean Ryan</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked potato cubes</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="n">
+          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Jamie Higgins</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Kayla Leahy</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Total for 1st</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="5" t="n">
-        <v>26</v>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Jake Coughlan</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
+      <c r="C30" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Nathan Kozik</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="n">
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Felipe Barreto</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Ona Houlihan-Canestro</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
+          <t>Total for 2nd</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Oliwier Wasik</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Harry Keegan</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Callum casey</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="n">
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Total for 3rd</t>
+          <t>Total for 4th</t>
         </is>
       </c>
       <c r="B37" s="4" t="n"/>
-      <c r="C37" s="4" t="n"/>
-      <c r="D37" s="5" t="n">
-        <v>7</v>
+      <c r="C37" s="5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
+          <t>Total for 6th</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Emma Warren</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>Noah O'Brien</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>Conor Morrin</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>kayleigh beatty</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>kayleigh beatty</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Total for 2nd</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="n"/>
-      <c r="C60" s="4" t="n"/>
-      <c r="D60" s="5" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="inlineStr">
-        <is>
-          <t>Odhran Davy</t>
-        </is>
-      </c>
-      <c r="C61" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D61" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D63" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C65" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D65" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>Total for 4th</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="n"/>
-      <c r="C66" s="4" t="n"/>
-      <c r="D66" s="5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C67" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D67" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t>Jesse Redican</t>
-        </is>
-      </c>
-      <c r="C68" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>Total for 6th</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="n"/>
-      <c r="C69" s="4" t="n"/>
-      <c r="D69" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t>Aaron Wilson</t>
-        </is>
-      </c>
-      <c r="C70" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D70" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
           <t>Total for 5th</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n"/>
-      <c r="C71" s="4" t="n"/>
-      <c r="D71" s="5" t="n">
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8813,7 +6887,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Thursday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Thursday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
@@ -9408,7 +7482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9419,7 +7493,6 @@
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9437,17 +7510,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Student Name</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
+          <t>Total Quantity</t>
         </is>
       </c>
     </row>
@@ -9459,12 +7527,11 @@
       </c>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9622,7 +7689,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Friday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Friday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
@@ -9807,7 +7874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9818,7 +7885,6 @@
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9836,17 +7902,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Student Name</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
+          <t>Total Quantity</t>
         </is>
       </c>
     </row>
@@ -9858,16 +7919,11 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
+      <c r="C3" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -9878,15 +7934,10 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,16 +7949,11 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
+      <c r="C5" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -9918,15 +7964,10 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
           <t>Essence Strawberry and Raspberry</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9938,16 +7979,11 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
+      <c r="C7" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -9958,16 +7994,11 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
           <t>Chicken Chop Suey with Egg Fried Rice</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
+      <c r="C8" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -9978,626 +8009,301 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Sean Ryan</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Anna Vaughan</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
+          <t>Total for 1st</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="5" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Anna Vaughan</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked crispy potato wedges</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Zack McGann</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Total for 1st</t>
+          <t>Total for 3rd</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="5" t="n">
-        <v>12</v>
+      <c r="C15" s="5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Jake Coughlan</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
+      <c r="C16" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Nathan Kozik</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Felipe Barreto</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Ona Houlihan-Canestro</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Oliwier Wasik</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Callum casey</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Total for 3rd</t>
+          <t>Total for 2nd</t>
         </is>
       </c>
       <c r="B22" s="4" t="n"/>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="5" t="n">
-        <v>6</v>
+      <c r="C22" s="5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="C23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
+          <t>Total for 6th</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="n">
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Maria Mccarthy</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>Total for 2nd</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="n"/>
-      <c r="D34" s="5" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Total for 6th</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="n"/>
-      <c r="C36" s="4" t="n"/>
-      <c r="D36" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Georgia Condron</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
           <t>Total for 4th</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n"/>
-      <c r="C41" s="4" t="n"/>
-      <c r="D41" s="5" t="n">
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="5" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10625,7 +8331,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Monday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Monday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
